--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -335,11 +335,610 @@
       <c r="C1" t="str">
         <v>Price</v>
       </c>
+      <c r="D1" t="str">
+        <v>Brand</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Model Name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Color</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Form Factor</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Connectivity Technology</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Series</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str"/>
-      <c r="B2" t="str"/>
-      <c r="C2" t="str"/>
+      <c r="A2" t="str">
+        <v>Razer BlackShark V2 Gaming Headset: THX 7.1 Spatial Surround Sound - 50mm Drivers - Detachable Mic - PC, PS4, PS5, Switch, Xbox One, Xbox Series X &amp; S, Mobile - 3.5 mm Audio Jack &amp; USB DAC - Black</v>
+      </c>
+      <c r="B2" t="str">
+        <v>4.6 out of 5 stars</v>
+      </c>
+      <c r="C2" t="str">
+        <v>89.42</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E2" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>BENGOO G9000 Stereo Gaming Headset for PS4 PC Xbox One PS5 Controller, Noise Cancelling Over Ear Headphones with Mic, LED Light, Bass Surround, Soft Memory Earmuffs for Laptop Mac Nintendo NES Games</v>
+      </c>
+      <c r="B3" t="str">
+        <v>4.3 out of 5 stars</v>
+      </c>
+      <c r="C3" t="str"/>
+      <c r="D3" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E3" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Razer Kraken Gaming Headset: Lightweight Aluminum Frame, Retractable Noise Isolating Microphone, For PC, PS4, PS5, Switch, Xbox One, Xbox Series X &amp; S, Mobile, 3.5 mm Audio Jack – Green</v>
+      </c>
+      <c r="B4" t="str">
+        <v>4.6 out of 5 stars</v>
+      </c>
+      <c r="C4" t="str">
+        <v>39.99</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>HyperX Cloud II - Gaming Headset, 7.1 Surround Sound, Memory Foam Ear Pads, Durable Aluminum Frame, Detachable Microphone, Works with PC, PS5, PS4, Xbox Series X|S, Xbox One – Gun Metal</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4.5 out of 5 stars</v>
+      </c>
+      <c r="C5" t="str"/>
+      <c r="D5" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Razer BlackShark V2 X Gaming Headset: 7.1 Surround Sound - 50mm Drivers - Memory Foam Cushion - for PC, PS4, PS5, Switch, Xbox One, Xbox Series X|S, Mobile - 3.5mm Audio Jack - Black</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4.5 out of 5 stars</v>
+      </c>
+      <c r="C6" t="str">
+        <v>49.99</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Razer Kraken Ultimate RGB USB Gaming Headset: THX 7.1 Spatial Surround Sound - Chroma RGB Lighting - Retractable Active Noise Cancelling Mic - Aluminum &amp; Steel Frame - for PC &amp; Mac - Classic Black</v>
+      </c>
+      <c r="B7" t="str">
+        <v>4.6 out of 5 stars</v>
+      </c>
+      <c r="C7" t="str">
+        <v>90.91</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BlackShark V2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Logitech G435 LIGHTSPEED and Bluetooth Wireless Gaming Headset - Lightweight over-ear headphones, built-in mics, 18h battery, compatible with Dolby Atmos, PC, PS4, PS5, Nintendo Switch, Mobile - Black</v>
+      </c>
+      <c r="B8" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+      <c r="C8" t="str"/>
+      <c r="D8" t="str">
+        <v>Logitech G</v>
+      </c>
+      <c r="E8" t="str">
+        <v>G435</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Wireless, Bluetooth</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>SteelSeries Arctis 7P+ Wireless Gaming Headset – Lossless 2.4 GHz – 30 Hour Battery Life – USB-C – 3D Audio – For PS5, PS4, PC, Mac, Android and Switch - White</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4.5 out of 5 stars</v>
+      </c>
+      <c r="C9" t="str">
+        <v>149.00</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Logitech G</v>
+      </c>
+      <c r="E9" t="str">
+        <v>G435</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Wireless, Bluetooth</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SteelSeries Arctis 7+ Wireless Gaming Headset – Lossless 2.4 GHz – 30 Hour Battery Life – USB-C – 7.1 Surround – For PC, PS5, PS4, Mac, Android and Switch - Black</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C10" t="str">
+        <v>139.00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Logitech G</v>
+      </c>
+      <c r="E10" t="str">
+        <v>G435</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Wireless, Bluetooth</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Sony-INZONE H7 Wireless Gaming Headset, Over-ear Headphones with 360 Spatial Sound, WH-G700</v>
+      </c>
+      <c r="B11" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+      <c r="C11" t="str">
+        <v>148.00</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Logitech G</v>
+      </c>
+      <c r="E11" t="str">
+        <v>G435</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Wireless, Bluetooth</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Razer Nari Essential Wireless 7.1 Surround Sound Gaming Headset: THX Spatial Audio - Auto-Adjust Headband &amp; Swivel Cups - Auto-Adjust - Flip Mic - for PC, PS4, PS5 Only - Black</v>
+      </c>
+      <c r="B12" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C12" t="str">
+        <v>49.99</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Wireless</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Nari Essential</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Turtle Beach Stealth 600 Gen 2 Wireless Gaming Headset for PS5, PS4, PS4 Pro, PlayStation, &amp; Nintendo Switch with 50mm Speakers, 15-Hour Battery life, Flip-to-Mute Mic, and Spatial Audio - Black</v>
+      </c>
+      <c r="B13" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C13" t="str">
+        <v>69.95</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Wireless</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Nari Essential</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>SteelSeries Arctis 3 Console - Stereo Wired Gaming Headset for PlayStation 5 / 4, Xbox Series X|S, Nintendo Switch, VR, Android and iOS - White</v>
+      </c>
+      <c r="B14" t="str">
+        <v>4.5 out of 5 stars</v>
+      </c>
+      <c r="C14" t="str">
+        <v>69.99</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Wireless</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Nari Essential</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Logitech G PRO X Gaming Headset (2nd Generation) with Blue Voice, DTS Headphone 7.1 and 50 mm PRO-G Drivers, for PC, Xbox One, Xbox Series X|S,PS5,PS4, Nintendo Switch - Black</v>
+      </c>
+      <c r="B15" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C15" t="str"/>
+      <c r="D15" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Wireless</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Nari Essential</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>JBL Quantum ONE - Over-Ear Performance Gaming Headset with Active Noise Cancelling (Wired) - Black</v>
+      </c>
+      <c r="B16" t="str">
+        <v>4.3 out of 5 stars</v>
+      </c>
+      <c r="C16" t="str">
+        <v>249.95</v>
+      </c>
+      <c r="D16" t="str">
+        <v>JBL</v>
+      </c>
+      <c r="E16" t="str">
+        <v>JBL Quantum ONE - Black</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Turtle Beach Recon 50 Xbox Gaming Headset for Xbox Series X, Xbox Series S, Xbox One, PS5, PS4, PlayStation, Nintendo Switch, Mobile &amp; PC with 3.5mm - Removable Mic, 40mm Speakers - Black</v>
+      </c>
+      <c r="B17" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C17" t="str">
+        <v>24.95</v>
+      </c>
+      <c r="D17" t="str">
+        <v>JBL</v>
+      </c>
+      <c r="E17" t="str">
+        <v>JBL Quantum ONE - Black</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Turtle Beach Stealth 600 Gen 2 USB Wireless Amplified Gaming Headset - Licensed for Xbox Series X, Xbox Series S, &amp; Xbox One - 24+ Hour Battery, 50mm Speakers, Flip-to-Mute Mic, Spatial Audio - White</v>
+      </c>
+      <c r="B18" t="str">
+        <v>4.3 out of 5 stars</v>
+      </c>
+      <c r="C18" t="str">
+        <v>84.95</v>
+      </c>
+      <c r="D18" t="str">
+        <v>JBL</v>
+      </c>
+      <c r="E18" t="str">
+        <v>JBL Quantum ONE - Black</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Logitech G635 DTS, X 7.1 Surround Sound LIGHTSYNC RGB PC Gaming Headset</v>
+      </c>
+      <c r="B19" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+      <c r="C19" t="str"/>
+      <c r="D19" t="str">
+        <v>Logitech G</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H19" t="str">
+        <v>RF</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Logitech G635 Gaming Headset</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>HyperX Cloud Stinger – Gaming Headset, Lightweight, Comfortable Memory Foam, Swivel to Mute Noise-Cancellation Mic, Works on PC, PS4, PS5, Xbox One, Xbox Series X|S, Nintendo Switch and Mobile ,Black</v>
+      </c>
+      <c r="B20" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C20" t="str"/>
+      <c r="D20" t="str">
+        <v>HyperX</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Wired</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Cloud Stinger</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>EPOS Audio H6PRO Closed Acoustic Gaming Headset (Racing Green)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>4.3 out of 5 stars</v>
+      </c>
+      <c r="C21" t="str">
+        <v>179.40</v>
+      </c>
+      <c r="D21" t="str">
+        <v>EPOS Gaming</v>
+      </c>
+      <c r="E21" t="str">
+        <v>H6 Pro Closed</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Racing Green</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Turtle Beach Stealth 600 Gen 2 MAX Wireless Amplified Multiplatform Gaming Headset for PS5, PS4, Nintendo Switch, PC &amp; Mac with 48+ Hour Battery, Lag-free Wireless, &amp; 50mm Speakers – Black</v>
+      </c>
+      <c r="B22" t="str">
+        <v>4.3 out of 5 stars</v>
+      </c>
+      <c r="C22" t="str">
+        <v>99.95</v>
+      </c>
+      <c r="D22" t="str">
+        <v>EPOS Gaming</v>
+      </c>
+      <c r="E22" t="str">
+        <v>H6 Pro Closed</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Racing Green</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Razer BlackShark V2 Pro Wireless Gaming Headset: THX 7.1 Spatial Surround Sound - 50mm Drivers - Detachable Mic - for PC, PS5, PS4, Switch, Black</v>
+      </c>
+      <c r="B23" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C23" t="str">
+        <v>119.99</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E23" t="str">
+        <v>BlackShark V2 Pro</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Wired</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Razer BlackShark V2 Pro Wireless Gaming Headset: THX 7.1 Spatial Surround Sound - 50mm Drivers - Detachable Mic - for PC, PS5, PS4, Switch, Black</v>
+      </c>
+      <c r="B24" t="str">
+        <v>4.4 out of 5 stars</v>
+      </c>
+      <c r="C24" t="str">
+        <v>119.99</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Razer</v>
+      </c>
+      <c r="E24" t="str">
+        <v>BlackShark V2 Pro</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Classic Black</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Over Ear</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Wired</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
